--- a/list/pcb_compo Order info.xlsx
+++ b/list/pcb_compo Order info.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-860" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="5900" yWindow="0" windowWidth="18440" windowHeight="14640"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="compo_info" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_req_may_17" sheetId="2" r:id="rId2"/>
+    <sheet name="Better_compo" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="InvoiceNoDetails">"InvoiceDetails[Invoice No]"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$D$44</definedName>
-    <definedName name="rngInvoice">Invoice!$D$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">compo_info!$A$1:$D$47</definedName>
+    <definedName name="rngInvoice">compo_info!$D$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +58,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0">
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Geneva"/>
+          </rPr>
+          <t>The Subtotal, Sales Tax, and Total rows calculate automatically.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author xml:space="preserve">   </author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Geneva"/>
+          </rPr>
+          <t>Easily apply your own branding to this template. This template is formatted using themes that enable you to apply fonts, colors, and graphic formatting effects throughout the workbook with just a click.
+Find themes on the Home tab, in the Themes group. Select from dozens of built-in themes available in the Themes gallery or find options to change just the theme fonts or theme colors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Geneva"/>
+          </rPr>
+          <t>Edit data in the Description, Units, and Cost Per Unit columns as needed. The Amount column calculates automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t>[Company Name] Invoice</t>
   </si>
@@ -235,9 +287,6 @@
     <t>http://www.4pcb.com/pcb-order-policy.html</t>
   </si>
   <si>
-    <t>2 layer, FR4, Cu I oz</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pin-socket for DIP</t>
   </si>
   <si>
@@ -256,18 +305,6 @@
     <t>Ebay</t>
   </si>
   <si>
-    <t>http://www.ebay.com/itm/20pcs-1X40-2-54mm-Pin-Header-Single-Row-Male-for-DIY-DIP-PCB-Board-convert-G37/181332316201?_trksid=p2047675.c100005.m1851&amp;_trkparms=aid%3D222007%26algo%3DSIC.MBE%26ao%3D1%26asc%3D30157%26meid%3D1c8d6f68bad94e51b8048154f551729f%26pid%3D100005%26rk%3D2%26rkt%3D6%26sd%3D171261190476&amp;rt=nc</t>
-  </si>
-  <si>
-    <t>20pcs 1X40 2.54mm Pin Header Single Row Male for DIY DIP PCB Board convert G37</t>
-  </si>
-  <si>
-    <t>http://www.digilentinc.com/Products/Detail.cfm?NavPath=2,393,914&amp;Prod=VHDCI-CONNECTOR-search/en?x=0&amp;y=0&amp;lang=en&amp;site=us&amp;keywords=7303+VHDCI</t>
-  </si>
-  <si>
-    <t>https://www.digilentinc.com/Cart/Cart.cfm?NavTop=106&amp;CFID=10336466&amp;CFTOKEN=3e92e68541112146-1076C0E1-5056-0201-02AC30B00D2F84F6</t>
-  </si>
-  <si>
     <t>http://www.ebay.com/itm/2-x-40-Pin-DIP-SIP-IC-Sockets-Adaptor-Solder-Type-FREE-SHIPPING-/260527720833?pt=LH_DefaultDomain_0&amp;hash=item3ca8a98981</t>
   </si>
   <si>
@@ -284,6 +321,116 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/like/281216038327?lpid=82&amp;chn=ps</t>
+  </si>
+  <si>
+    <t>http://wallbuys.com/Product/SA247IC-Programmer-Socket-AdapterGreen-27314</t>
+  </si>
+  <si>
+    <t>Wallbuys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHDCI Male-to-Male Cable
+VHDCI male connector on both ends
+16" in length
+Useful for connecting Vmods to VHDCI-equipped system boards (Genesys, Atlys, ...)
+Part# 250-045P
+</t>
+  </si>
+  <si>
+    <t>https://www.digilentinc.com/</t>
+  </si>
+  <si>
+    <t>SA247 IC Programmer Socket Adapter - Green</t>
+  </si>
+  <si>
+    <t>http://www.digilentinc.com/Products/Detail.cfm?NavPath=2,393,914&amp;Prod=VHDCI-CONNECTOR</t>
+  </si>
+  <si>
+    <t>https://www.digilentinc.com/Products/Catalog.cfm?NavPath=2,393&amp;Cat=3</t>
+  </si>
+  <si>
+    <t>2x34 pins, male
+Right angle type for through-hole mounting
+Part #: R-HI-008068-2</t>
+  </si>
+  <si>
+    <t>VHDCI Male-to-Male Cable
+VHDCI male connector on both ends
+16" in length
+Useful for connecting Vmods to VHDCI-equipped boards (Genesys, Atlys, ...)
+Part# 250-045P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CONN PLUG SATA 22POS R/A SMD
+Part #: WM19111-ND, 0877030001</t>
+  </si>
+  <si>
+    <t>300 PCS Mini Jumper
+2.54+2.00+1.27mm Pin Header Spacing Shunt
+Part #: N/A</t>
+  </si>
+  <si>
+    <t>20pcs 1X40 2.54mm Pin Header Single Row Male 
+for DIY DIP PCB Board convert G37
+Part #: N/A</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/110-43-648-41-001000/ED90045-ND/947053</t>
+  </si>
+  <si>
+    <t>2 x 40 Pin DIP SIP IC Sockets
+2.54+2.9mm
+Part #: N/A</t>
+  </si>
+  <si>
+    <t>CONN IC DIP SOCKET 48POS GOLD
+Mill-Max Manufacturing Corp.
+Part #: ED90045-ND</t>
+  </si>
+  <si>
+    <t>2 layer, FR4, Cu I oz (Auto gerber from PCB-artist)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/800-10-048-10-001000/ED7248-ND/218720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ----- 2.54+0.76+4.95mm
+SIP HEADER 48 POS STRAIGHT PCB
+Part #: N/A</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/382811-8/A26228-ND/293121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 PCS Mini Jumper
+2.54+2.13+1.09mm Pin Header Spacing Shunt
+Part #: A26228-ND </t>
+  </si>
+  <si>
+    <t>(edit list)Invoice Subtotal</t>
+  </si>
+  <si>
+    <t>10PCS 2.54mm pitch 2 x 40 Pin 
+Male Double Row Pin Header Strip Breakable CG
+Part #: N/A</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/10PCS-2-54mm-pitch-2-x-40-Pin-Male-Double-Row-Pin-Header-Strip-Breakable-CG-/161398554287?pt=LH_DefaultDomain_0&amp;hash=item25941a7eaf</t>
+  </si>
+  <si>
+    <t>Pin-Headers(power selctor)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/435-40-206-00-160000/ED1372-06-ND/4456498</t>
+  </si>
+  <si>
+    <t>CONN HEADER DBL 6POS 
+2.54+0.46+3.18
+Part #: ED1372-06-ND</t>
   </si>
 </sst>
 </file>
@@ -560,7 +707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -572,8 +719,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -652,6 +802,54 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -660,63 +858,144 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -724,8 +1003,513 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="11" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -842,179 +1626,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1063,32 +1674,25 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="6"/>
         </bottom>
       </border>
     </dxf>
@@ -1098,16 +1702,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:G33" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A15:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:G36" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="Percent" dataCellStyle="Percent">
+  <autoFilter ref="A15:G36"/>
+  <sortState ref="A16:G36">
+    <sortCondition ref="A15:A36"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="6" name="Item" dataDxfId="7"/>
-    <tableColumn id="8" name="Description" dataDxfId="1"/>
-    <tableColumn id="9" name="company" dataDxfId="0"/>
-    <tableColumn id="7" name="Web/contact" dataDxfId="2"/>
-    <tableColumn id="2" name="Units" dataDxfId="6"/>
-    <tableColumn id="3" name="Cost Per Unit" dataDxfId="5"/>
-    <tableColumn id="4" name="Amount" dataDxfId="4"/>
+    <tableColumn id="6" name="Item" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="Description" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="company" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Web/contact" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="2" name="Units" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Cost Per Unit" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="Amount" dataDxfId="2" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A15:G26" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A15:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="6" name="Item" dataDxfId="19"/>
+    <tableColumn id="8" name="Description" dataDxfId="18"/>
+    <tableColumn id="9" name="company" dataDxfId="17"/>
+    <tableColumn id="7" name="Web/contact" dataDxfId="16"/>
+    <tableColumn id="2" name="Units" dataDxfId="15"/>
+    <tableColumn id="3" name="Cost Per Unit" dataDxfId="14"/>
+    <tableColumn id="4" name="Amount" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1365,18 +1988,745 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31" style="49" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="0" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="49"/>
+    <col min="7" max="7" width="13.33203125" style="49" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickTop="1">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1">
+      <c r="A11" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickTop="1"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1"/>
+    <row r="15" spans="1:9" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1</v>
+      </c>
+      <c r="F16" s="73">
+        <v>20.59</v>
+      </c>
+      <c r="G16" s="74">
+        <f>F16*E16</f>
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="73">
+        <v>1</v>
+      </c>
+      <c r="F17" s="73">
+        <v>48.99</v>
+      </c>
+      <c r="G17" s="74">
+        <f>F17*E17</f>
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1</v>
+      </c>
+      <c r="F18" s="73">
+        <v>33</v>
+      </c>
+      <c r="G18" s="74">
+        <f>F18*E18</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A19" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="73">
+        <v>1</v>
+      </c>
+      <c r="F19" s="73">
+        <v>4.45</v>
+      </c>
+      <c r="G19" s="74">
+        <f>F19*E19</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A20" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="73">
+        <v>1</v>
+      </c>
+      <c r="F20" s="73">
+        <v>3.68</v>
+      </c>
+      <c r="G20" s="74">
+        <f>F20*E20</f>
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A21" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1</v>
+      </c>
+      <c r="F21" s="73">
+        <v>0.84</v>
+      </c>
+      <c r="G21" s="74">
+        <f>F21*E21</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A22" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="73">
+        <v>1</v>
+      </c>
+      <c r="F22" s="73">
+        <v>4.99</v>
+      </c>
+      <c r="G22" s="74">
+        <f>F22*E22</f>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A23" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="73">
+        <v>1</v>
+      </c>
+      <c r="F23" s="73">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G23" s="74">
+        <f>F23*E23</f>
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A24" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="73">
+        <v>1</v>
+      </c>
+      <c r="F24" s="73">
+        <v>1.29</v>
+      </c>
+      <c r="G24" s="74">
+        <f>F24*E24</f>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A25" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="73">
+        <v>1</v>
+      </c>
+      <c r="F25" s="73">
+        <v>3.06</v>
+      </c>
+      <c r="G25" s="74">
+        <f>F25*E25</f>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A26" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73">
+        <v>24.99</v>
+      </c>
+      <c r="G26" s="74">
+        <f>F26*E26</f>
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A27" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="73">
+        <v>1</v>
+      </c>
+      <c r="F27" s="73">
+        <v>9.49</v>
+      </c>
+      <c r="G27" s="74">
+        <f>F27*E27</f>
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A28" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="73">
+        <v>1</v>
+      </c>
+      <c r="F28" s="73">
+        <v>2.83</v>
+      </c>
+      <c r="G28" s="74">
+        <f>F28*E28</f>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="69" customFormat="1" ht="45">
+      <c r="A29" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="73">
+        <v>1</v>
+      </c>
+      <c r="F29" s="73">
+        <v>1.49</v>
+      </c>
+      <c r="G29" s="74">
+        <f>F29*E29</f>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="33" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="74"/>
+    </row>
+    <row r="34" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="74"/>
+    </row>
+    <row r="35" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="74"/>
+    </row>
+    <row r="36" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="82">
+        <f>SUM(G16:G36)</f>
+        <v>167.82000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="82">
+        <f>D37*D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="82"/>
+    </row>
+    <row r="41" spans="1:7" s="69" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="83"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" thickTop="1">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="86">
+        <f>(SUM(D37,D39,D40))-D41</f>
+        <v>167.82000000000005</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+    </row>
+    <row r="46" spans="1:7" s="89" customFormat="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A47:D47"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="D18" r:id="rId3"/>
+    <hyperlink ref="D27" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6"/>
+    <hyperlink ref="D22" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8" display="https://www.digilentinc.com/"/>
+    <hyperlink ref="D24" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D23" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D29" r:id="rId13"/>
+    <hyperlink ref="D28" r:id="rId14"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D42" emptyCellReference="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId15"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="86"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -1384,12 +2734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickTop="1">
       <c r="A2" s="1" t="s">
@@ -1427,7 +2777,7 @@
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1476,7 +2826,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
@@ -1507,457 +2857,307 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1"/>
     <row r="15" spans="1:9" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>48</v>
+    <row r="16" spans="1:9" s="15" customFormat="1">
+      <c r="A16" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="37">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
-        <v>33</v>
-      </c>
-      <c r="G16" s="39">
-        <f>F16*E16</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="40">
+        <v>4</v>
+      </c>
+      <c r="F16" s="35">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" ref="G16:G17" si="0">F16*E16</f>
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="105">
+      <c r="A17" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="37">
         <v>1</v>
       </c>
-      <c r="F17" s="38">
-        <v>48.99</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" ref="G17:G26" si="0">F17*E17</f>
-        <v>48.99</v>
+      <c r="F17" s="35">
+        <v>24.99</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="0"/>
+        <v>24.99</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="40">
-        <v>1</v>
-      </c>
-      <c r="F18" s="38">
-        <v>20.59</v>
-      </c>
-      <c r="G18" s="39">
-        <f t="shared" si="0"/>
-        <v>20.59</v>
-      </c>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="40">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>3.68</v>
-      </c>
-      <c r="G19" s="39">
-        <f t="shared" si="0"/>
-        <v>3.68</v>
-      </c>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1.29</v>
-      </c>
-      <c r="G20" s="39">
-        <f>F20*E20</f>
-        <v>1.29</v>
-      </c>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="28">
+        <f>SUM(G16:G26)</f>
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="19">
         <v>0</v>
       </c>
-      <c r="F21" s="38">
-        <v>4.99</v>
-      </c>
-      <c r="G21" s="39">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="20">
+        <f>D27*D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="40">
-        <v>2</v>
-      </c>
-      <c r="F22" s="38">
-        <v>3.06</v>
-      </c>
-      <c r="G22" s="39">
-        <f t="shared" si="0"/>
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="40">
-        <v>2</v>
-      </c>
-      <c r="F23" s="38">
-        <v>9.49</v>
-      </c>
-      <c r="G23" s="39">
-        <f t="shared" si="0"/>
-        <v>18.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="40">
-        <v>2</v>
-      </c>
-      <c r="F24" s="38">
-        <v>24.99</v>
-      </c>
-      <c r="G24" s="39">
-        <f t="shared" si="0"/>
-        <v>49.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="39"/>
-    </row>
     <row r="30" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="28">
-        <f>SUM(G16:G33)</f>
-        <v>215.63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="20">
-        <f>D34*D35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" thickTop="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23" t="s">
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" thickTop="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="24">
-        <f>(SUM(D34,D36,D37))-D38</f>
-        <v>215.63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="25" t="s">
+      <c r="D32" s="24">
+        <f>(SUM(D27,D29,D30))-D31</f>
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="25" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" s="26" customFormat="1">
-      <c r="A44" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" s="26" customFormat="1">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1"/>
-    <hyperlink ref="D18" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="D23" r:id="rId4" display="http://www.cinc.com/Products/Detail.cfm?NavPath=2,393,914&amp;Prod=VHDCI-CONNECTOR-search/en?x=0&amp;y=0&amp;lang=en&amp;site=us&amp;keywords=7303+VHDCI"/>
-    <hyperlink ref="D19" r:id="rId5"/>
-    <hyperlink ref="D22" r:id="rId6"/>
-    <hyperlink ref="D21" r:id="rId7"/>
-    <hyperlink ref="D24" r:id="rId8"/>
+    <hyperlink ref="D16" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="D39 D34" emptyCellReference="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="86"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
